--- a/data_analysis/assets/output_files/subject_toppers/subject_wise_toppers.xlsx
+++ b/data_analysis/assets/output_files/subject_toppers/subject_wise_toppers.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="19">
-  <si>
-    <t>Subject: BSA210</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="20">
+  <si>
+    <t>Subject: BSA408</t>
   </si>
   <si>
     <t>Rank</t>
@@ -37,40 +37,43 @@
     <t>CPI</t>
   </si>
   <si>
-    <t>TCA2107015</t>
-  </si>
-  <si>
-    <t>HARSH KUMAR</t>
-  </si>
-  <si>
-    <t>Subject: BSA211</t>
-  </si>
-  <si>
-    <t>Subject: BSA212</t>
-  </si>
-  <si>
-    <t>Subject: BSA256</t>
-  </si>
-  <si>
-    <t>Subject: BSA257</t>
-  </si>
-  <si>
-    <t>Subject: BSA258</t>
-  </si>
-  <si>
-    <t>TCA2107030</t>
-  </si>
-  <si>
-    <t>PRANAV KUMAR RAJPUT</t>
-  </si>
-  <si>
-    <t>Subject: TMUGE201</t>
-  </si>
-  <si>
-    <t>TCA2107037</t>
-  </si>
-  <si>
-    <t>VARUN SINGH</t>
+    <t>TCA2007008</t>
+  </si>
+  <si>
+    <t>KHUSHI AGARWAL</t>
+  </si>
+  <si>
+    <t>Subject: BSA410</t>
+  </si>
+  <si>
+    <t>Subject: BSA412</t>
+  </si>
+  <si>
+    <t>Subject: BSA460</t>
+  </si>
+  <si>
+    <t>TCA2007023</t>
+  </si>
+  <si>
+    <t>VINIT SAINI</t>
+  </si>
+  <si>
+    <t>Subject: BSA461</t>
+  </si>
+  <si>
+    <t>TCA2007006</t>
+  </si>
+  <si>
+    <t>APOORV MITTAL</t>
+  </si>
+  <si>
+    <t>Subject: BSA462</t>
+  </si>
+  <si>
+    <t>Subject: BSA463</t>
+  </si>
+  <si>
+    <t>Subject: TMUGE401</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,13 +511,13 @@
         <v>8</v>
       </c>
       <c r="D3" s="3">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E3" s="3">
         <v>100</v>
       </c>
       <c r="F3" s="3">
-        <v>88.62</v>
+        <v>89.76000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -558,13 +561,13 @@
         <v>8</v>
       </c>
       <c r="D8" s="3">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>88.62</v>
+        <v>89.76000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -608,13 +611,13 @@
         <v>8</v>
       </c>
       <c r="D13" s="3">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" s="3">
         <v>100</v>
       </c>
       <c r="F13" s="3">
-        <v>88.62</v>
+        <v>89.76000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -658,174 +661,285 @@
         <v>8</v>
       </c>
       <c r="D18" s="3">
+        <v>94</v>
+      </c>
+      <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>89.76000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2">
+        <v>94</v>
+      </c>
+      <c r="E19" s="2">
+        <v>100</v>
+      </c>
+      <c r="F19" s="2">
+        <v>84.29000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3">
+        <v>94</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>89.76000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="2">
+        <v>94</v>
+      </c>
+      <c r="E25" s="2">
+        <v>100</v>
+      </c>
+      <c r="F25" s="2">
+        <v>86.67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3">
+        <v>94</v>
+      </c>
+      <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>84.29000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="3">
         <v>91</v>
       </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>88.62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="E31" s="3">
+        <v>100</v>
+      </c>
+      <c r="F31" s="3">
+        <v>86.67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="3">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3" t="s">
+    <row r="36" spans="1:6">
+      <c r="A36" s="3">
+        <v>1</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="3">
+        <v>94</v>
+      </c>
+      <c r="E36" s="3">
+        <v>100</v>
+      </c>
+      <c r="F36" s="3">
+        <v>86.67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="3">
+        <v>1</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="3">
-        <v>87</v>
-      </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>88.62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="3">
-        <v>1</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="3">
-        <v>91</v>
-      </c>
-      <c r="E28" s="3">
-        <v>100</v>
-      </c>
-      <c r="F28" s="3">
-        <v>80.43000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="3">
-        <v>1</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="3">
-        <v>95</v>
-      </c>
-      <c r="E33" s="3">
-        <v>100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>81.09999999999999</v>
+      <c r="D41" s="3">
+        <v>89</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>89.76000000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A39:F39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
